--- a/biology/Biologie cellulaire et moléculaire/C-Fos/C-Fos.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/C-Fos/C-Fos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">c-Fos est une protéine constituée de 380 acides aminés et son gène est présent sur le chromosome 14 humain de même que dans le génome de divers autres eucaryotes. Cette protéine correspond a un facteur de transcription nucléaire dont la principale fonction est l'induction de la transcription d’un gène.
 </t>
@@ -511,7 +523,9 @@
           <t>Détails de mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit du facteur de transcription le plus fréquemment synthétisé à la suite d'un signal activateur. Les facteurs les plus dimérisables avec c-fos sont de la famille Jun comme c-jun. La dimérisation entre ces deux protéines, fos et jun, par l’intermédiaire d’une glissière à leucine (leucine zipper), forme le complexe transcriptionnel AP-1. La protéine c-fos seule est incapable de s’homodimériser et de se fixer à la molécule d’ADN. Avec c-jun, ils reconnaissent précisément la séquence de nucléotides TGACTC.
 Le gène c-fos codant la protéine constitue un des gènes de réponse précoce, c’est-à-dire qu’il apparaît parmi les premiers facteurs de transcription lorsque la cellule passe de l’état quiescent G0 à l’état préparatoire à la division cellulaire G1 dans le cycle cellulaire. Ce gène c-fos est régulé par un amplificateur qui contient un élément de réponse au sérum qui tire son nom du fait qu’il est activé par de multiples facteurs de croissance sérique. Cet amplificateur complexe contient des séquences d’ADN qui lient plusieurs facteurs de transcription. C’est en fait par la MAP kinase dimérique active que sera induite la transcription du gène c-fos. Tout d’abord, la MAP kinase dimérique activée par phosphorylation est présente dans le cytosol de la cellule. Ensuite, cette kinase phosphoryle une autre kinase, p90 qui gagne le noyau pour phosphoryler une sérine spécifique dans le facteur complexe ternaire (TCF). De plus, la MAP kinase activée dans le noyau ira phosphoryler directement des sérines dans le facteur de réponse sérique (SRF). C’est l’association entre le facteur complexe ternaire et deux molécules de SRF qui forme un facteur trimérique actif qui se lie fortement au segment d’ADN de l’élément de réponse sérique et qui stimule la transcription du gène c-fos.
